--- a/cta策略/result/螺纹/MACD_60min/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_60min/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.0700742581027658</v>
+        <v>0.04403907514109107</v>
       </c>
       <c r="D2">
-        <v>0.1825607534785555</v>
+        <v>0.02231254544095014</v>
       </c>
       <c r="E2">
-        <v>0.3443625555671264</v>
+        <v>0.1452174642793285</v>
       </c>
       <c r="F2">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
